--- a/src/assets/sample.xlsx
+++ b/src/assets/sample.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28160" windowHeight="17540" tabRatio="192"/>
+    <workbookView xWindow="2000" yWindow="280" windowWidth="28160" windowHeight="17540" tabRatio="192"/>
   </bookViews>
   <sheets>
     <sheet name="data1" sheetId="1" r:id="rId1"/>
@@ -85,11 +85,17 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <charset val="204"/>
     </font>
   </fonts>
   <fills count="2">
@@ -100,7 +106,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -108,12 +114,30 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -516,7 +540,7 @@
   <dimension ref="A1:L6"/>
   <sheetViews>
     <sheetView showZeros="0" tabSelected="1" defaultGridColor="0" colorId="9" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12" x14ac:dyDescent="0"/>
@@ -524,155 +548,181 @@
     <col min="2" max="2" width="10.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
-      <c r="A1" t="s">
+    <row r="1" spans="1:12" s="3" customFormat="1">
+      <c r="A1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="L1" t="s">
+      <c r="L1" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:12">
-      <c r="A2">
+      <c r="A2" s="1">
         <v>24.515033333333335</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="1">
         <v>93.794700000000006</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F2" t="s">
+      <c r="E2" s="1"/>
+      <c r="F2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="I2">
+      <c r="H2" s="1"/>
+      <c r="I2" s="1">
         <v>3</v>
       </c>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
     </row>
     <row r="3" spans="1:12">
-      <c r="A3">
+      <c r="A3" s="1">
         <v>24.5153833333333</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="1">
         <v>93.794883333333331</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G3" t="s">
+      <c r="F3" s="1"/>
+      <c r="G3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="J3">
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1">
         <v>2</v>
       </c>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
     </row>
     <row r="4" spans="1:12">
-      <c r="A4">
+      <c r="A4" s="1">
         <v>24.514916666666668</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="1">
         <v>93.794933333333333</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="G4" t="s">
+      <c r="F4" s="1"/>
+      <c r="G4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="K4">
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1">
         <v>2</v>
       </c>
+      <c r="L4" s="1"/>
     </row>
     <row r="5" spans="1:12">
-      <c r="A5">
+      <c r="A5" s="1">
         <v>24.51465</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="1">
         <v>93.795233333333329</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E5" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="G5" t="s">
+      <c r="F5" s="1"/>
+      <c r="G5" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="L5">
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:12">
-      <c r="A6">
+      <c r="A6" s="1">
         <v>24.51455</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="1">
         <v>93.795483333333337</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E6" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="G6" t="s">
+      <c r="F6" s="1"/>
+      <c r="G6" s="1" t="s">
         <v>9</v>
       </c>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
+      <c r="L6" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.0249999999999999" bottom="1.0249999999999999" header="0.78749999999999998" footer="0.78749999999999998"/>
